--- a/data/linked_data/linked/linked_ohdl.xlsx
+++ b/data/linked_data/linked/linked_ohdl.xlsx
@@ -82,16 +82,16 @@
     <t>p12345</t>
   </si>
   <si>
-    <t>{'weapons', 'violence'}</t>
+    <t>{'violence', 'weapons'}</t>
   </si>
   <si>
     <t>{'murder'}</t>
   </si>
   <si>
-    <t>{'driving', 'theft', 'criminal damage'}</t>
-  </si>
-  <si>
-    <t>{'weapons', 'theft', 'drugs'}</t>
+    <t>{'driving', 'criminal damage', 'theft'}</t>
+  </si>
+  <si>
+    <t>{'drugs', 'weapons', 'theft'}</t>
   </si>
   <si>
     <t>HMP Cardiff</t>
